--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/UTAH_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/UTAH_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1159"/>
+  <dimension ref="A1:D1153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C9">
@@ -511,7 +511,7 @@
         <v>83</v>
       </c>
       <c r="D11">
-        <v>0.009680429204571961</v>
+        <v>0.009680429204571959</v>
       </c>
     </row>
     <row r="12">
@@ -719,7 +719,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C26">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C33">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C41">
@@ -1031,7 +1031,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C50">
@@ -1433,7 +1433,7 @@
         <v>8</v>
       </c>
       <c r="D80">
-        <v>0.0009330534173081409</v>
+        <v>0.0009330534173081408</v>
       </c>
     </row>
     <row r="81">
@@ -1465,7 +1465,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C83">
@@ -1491,7 +1491,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C85">
@@ -1511,7 +1511,7 @@
         <v>8</v>
       </c>
       <c r="D86">
-        <v>0.0009330534173081409</v>
+        <v>0.0009330534173081408</v>
       </c>
     </row>
     <row r="87">
@@ -1699,7 +1699,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C101">
@@ -1712,7 +1712,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C102">
@@ -1725,7 +1725,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C103">
@@ -1745,7 +1745,7 @@
         <v>8</v>
       </c>
       <c r="D104">
-        <v>0.0009330534173081409</v>
+        <v>0.0009330534173081408</v>
       </c>
     </row>
     <row r="105">
@@ -1790,7 +1790,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C108">
@@ -2086,7 +2086,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C130">
@@ -2112,7 +2112,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2169,7 +2169,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C136">
@@ -2356,7 +2356,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C150">
@@ -2499,14 +2499,14 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C161">
         <v>8</v>
       </c>
       <c r="D161">
-        <v>0.0009330534173081409</v>
+        <v>0.0009330534173081408</v>
       </c>
     </row>
     <row r="162">
@@ -2538,7 +2538,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C164">
@@ -2616,7 +2616,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C170">
@@ -2733,12 +2733,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C179">
@@ -2777,7 +2777,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C182">
@@ -2790,7 +2790,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C183">
@@ -2842,7 +2842,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C187">
@@ -2933,7 +2933,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C194">
@@ -2998,7 +2998,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C199">
@@ -3050,14 +3050,14 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C203">
         <v>8</v>
       </c>
       <c r="D203">
-        <v>0.0009330534173081409</v>
+        <v>0.0009330534173081408</v>
       </c>
     </row>
     <row r="204">
@@ -3193,7 +3193,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C214">
@@ -3239,7 +3239,7 @@
         <v>8</v>
       </c>
       <c r="D217">
-        <v>0.0009330534173081409</v>
+        <v>0.0009330534173081408</v>
       </c>
     </row>
     <row r="218">
@@ -3284,7 +3284,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C221">
@@ -3297,7 +3297,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C222">
@@ -3414,7 +3414,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C231">
@@ -3492,7 +3492,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C237">
@@ -3570,7 +3570,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C243">
@@ -3583,7 +3583,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C244">
@@ -3629,7 +3629,7 @@
         <v>8</v>
       </c>
       <c r="D247">
-        <v>0.0009330534173081409</v>
+        <v>0.0009330534173081408</v>
       </c>
     </row>
     <row r="248">
@@ -3705,7 +3705,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C253">
@@ -3718,7 +3718,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C254">
@@ -3731,7 +3731,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C255">
@@ -3783,7 +3783,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C259">
@@ -3835,7 +3835,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C263">
@@ -3920,7 +3920,7 @@
         <v>81</v>
       </c>
       <c r="D269">
-        <v>0.009447165850244927</v>
+        <v>0.009447165850244929</v>
       </c>
     </row>
     <row r="270">
@@ -3939,7 +3939,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C271">
@@ -3991,7 +3991,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C275">
@@ -4017,7 +4017,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C277">
@@ -4043,7 +4043,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C279">
@@ -4056,7 +4056,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C280">
@@ -4082,7 +4082,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C282">
@@ -4134,7 +4134,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C286">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C290">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C293">
@@ -4243,7 +4243,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C294">
@@ -4295,7 +4295,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C298">
@@ -4308,7 +4308,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C299">
@@ -4321,7 +4321,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C300">
@@ -4360,7 +4360,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C303">
@@ -4373,7 +4373,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C304">
@@ -4386,7 +4386,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C305">
@@ -4399,7 +4399,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C306">
@@ -4445,7 +4445,7 @@
         <v>8</v>
       </c>
       <c r="D309">
-        <v>0.0009330534173081409</v>
+        <v>0.0009330534173081408</v>
       </c>
     </row>
     <row r="310">
@@ -4464,7 +4464,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C311">
@@ -4477,7 +4477,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C312">
@@ -4529,7 +4529,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C316">
@@ -4542,7 +4542,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C317">
@@ -4607,7 +4607,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C322">
@@ -4620,7 +4620,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C323">
@@ -4646,7 +4646,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C325">
@@ -4659,7 +4659,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C326">
@@ -4685,7 +4685,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C328">
@@ -4724,7 +4724,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C331">
@@ -4744,7 +4744,7 @@
         <v>8</v>
       </c>
       <c r="D332">
-        <v>0.0009330534173081409</v>
+        <v>0.0009330534173081408</v>
       </c>
     </row>
     <row r="333">
@@ -4757,7 +4757,7 @@
         <v>8</v>
       </c>
       <c r="D333">
-        <v>0.0009330534173081409</v>
+        <v>0.0009330534173081408</v>
       </c>
     </row>
     <row r="334">
@@ -4893,7 +4893,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C344">
@@ -4919,7 +4919,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C346">
@@ -4945,7 +4945,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C348">
@@ -4971,7 +4971,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C350">
@@ -5010,7 +5010,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C353">
@@ -5023,7 +5023,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C354">
@@ -5171,7 +5171,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C365">
@@ -5236,7 +5236,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C370">
@@ -5282,13 +5282,13 @@
         <v>8</v>
       </c>
       <c r="D373">
-        <v>0.0009330534173081409</v>
+        <v>0.0009330534173081408</v>
       </c>
     </row>
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C374">
@@ -5340,7 +5340,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C378">
@@ -5353,7 +5353,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C379">
@@ -5379,7 +5379,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C381">
@@ -5431,7 +5431,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C385">
@@ -5444,7 +5444,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C386">
@@ -5457,7 +5457,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C387">
@@ -5483,7 +5483,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C389">
@@ -5496,7 +5496,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C390">
@@ -5535,7 +5535,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C393">
@@ -5561,7 +5561,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C395">
@@ -5600,7 +5600,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C398">
@@ -5626,7 +5626,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C400">
@@ -5691,7 +5691,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C405">
@@ -5704,7 +5704,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C406">
@@ -5774,7 +5774,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C411">
@@ -5787,7 +5787,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C412">
@@ -5826,7 +5826,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C415">
@@ -5852,7 +5852,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C417">
@@ -5878,7 +5878,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C419">
@@ -6021,7 +6021,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C430">
@@ -6034,7 +6034,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C431">
@@ -6086,7 +6086,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C435">
@@ -6164,7 +6164,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C441">
@@ -6177,7 +6177,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C442">
@@ -6229,7 +6229,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C446">
@@ -6294,7 +6294,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C451">
@@ -6405,7 +6405,7 @@
         <v>8</v>
       </c>
       <c r="D459">
-        <v>0.0009330534173081409</v>
+        <v>0.0009330534173081408</v>
       </c>
     </row>
     <row r="460">
@@ -6437,7 +6437,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C462">
@@ -6450,7 +6450,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C463">
@@ -6476,7 +6476,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C465">
@@ -6489,7 +6489,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C466">
@@ -6528,7 +6528,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C469">
@@ -6541,7 +6541,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C470">
@@ -6554,7 +6554,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C471">
@@ -6593,7 +6593,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C474">
@@ -6606,14 +6606,14 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C475">
         <v>8</v>
       </c>
       <c r="D475">
-        <v>0.0009330534173081409</v>
+        <v>0.0009330534173081408</v>
       </c>
     </row>
     <row r="476">
@@ -6684,7 +6684,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C481">
@@ -6697,7 +6697,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C482">
@@ -6736,7 +6736,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C485">
@@ -6749,7 +6749,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C486">
@@ -6879,7 +6879,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C496">
@@ -6892,7 +6892,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C497">
@@ -6905,7 +6905,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C498">
@@ -6918,7 +6918,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C499">
@@ -6964,13 +6964,13 @@
         <v>8</v>
       </c>
       <c r="D502">
-        <v>0.0009330534173081409</v>
+        <v>0.0009330534173081408</v>
       </c>
     </row>
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C503">
@@ -6983,7 +6983,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C504">
@@ -7022,20 +7022,20 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C507">
         <v>8</v>
       </c>
       <c r="D507">
-        <v>0.0009330534173081409</v>
+        <v>0.0009330534173081408</v>
       </c>
     </row>
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C508">
@@ -7048,7 +7048,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C509">
@@ -7242,7 +7242,7 @@
         <v>8</v>
       </c>
       <c r="D523">
-        <v>0.0009330534173081409</v>
+        <v>0.0009330534173081408</v>
       </c>
     </row>
     <row r="524">
@@ -7287,7 +7287,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C527">
@@ -7313,7 +7313,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C529">
@@ -7541,7 +7541,7 @@
         <v>8</v>
       </c>
       <c r="D546">
-        <v>0.0009330534173081409</v>
+        <v>0.0009330534173081408</v>
       </c>
     </row>
     <row r="547">
@@ -8397,7 +8397,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C612">
@@ -8475,7 +8475,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C618">
@@ -8514,14 +8514,14 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C621">
         <v>8</v>
       </c>
       <c r="D621">
-        <v>0.0009330534173081409</v>
+        <v>0.0009330534173081408</v>
       </c>
     </row>
     <row r="622">
@@ -8579,7 +8579,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C626">
@@ -8605,14 +8605,14 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C628">
         <v>8</v>
       </c>
       <c r="D628">
-        <v>0.0009330534173081409</v>
+        <v>0.0009330534173081408</v>
       </c>
     </row>
     <row r="629">
@@ -8714,7 +8714,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C636">
@@ -8727,14 +8727,14 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C637">
         <v>8</v>
       </c>
       <c r="D637">
-        <v>0.0009330534173081409</v>
+        <v>0.0009330534173081408</v>
       </c>
     </row>
     <row r="638">
@@ -8779,7 +8779,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C641">
@@ -8831,7 +8831,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C645">
@@ -8992,7 +8992,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C657">
@@ -9036,7 +9036,7 @@
     <row r="660">
       <c r="B660" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C660">
@@ -9075,7 +9075,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C663">
@@ -9101,7 +9101,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C665">
@@ -9127,7 +9127,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C667">
@@ -9140,7 +9140,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C668">
@@ -9153,7 +9153,7 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C669">
@@ -9179,7 +9179,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C671">
@@ -9192,7 +9192,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C672">
@@ -9244,7 +9244,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C676">
@@ -9257,7 +9257,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C677">
@@ -9270,7 +9270,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C678">
@@ -9283,7 +9283,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C679">
@@ -9296,7 +9296,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C680">
@@ -9309,7 +9309,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C681">
@@ -9543,7 +9543,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C699">
@@ -9595,7 +9595,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C703">
@@ -10024,7 +10024,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C736">
@@ -10037,7 +10037,7 @@
     <row r="737">
       <c r="B737" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C737">
@@ -10278,7 +10278,7 @@
         <v>8</v>
       </c>
       <c r="D755">
-        <v>0.0009330534173081409</v>
+        <v>0.0009330534173081408</v>
       </c>
     </row>
     <row r="756">
@@ -10369,7 +10369,7 @@
         <v>8</v>
       </c>
       <c r="D762">
-        <v>0.0009330534173081409</v>
+        <v>0.0009330534173081408</v>
       </c>
     </row>
     <row r="763">
@@ -10427,7 +10427,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C767">
@@ -10499,13 +10499,13 @@
         <v>8</v>
       </c>
       <c r="D772">
-        <v>0.0009330534173081409</v>
+        <v>0.0009330534173081408</v>
       </c>
     </row>
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C773">
@@ -10518,7 +10518,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C774">
@@ -10531,7 +10531,7 @@
     <row r="775">
       <c r="B775" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C775">
@@ -10544,7 +10544,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C776">
@@ -10557,7 +10557,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C777">
@@ -10583,7 +10583,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C779">
@@ -10596,7 +10596,7 @@
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C780">
@@ -10965,7 +10965,7 @@
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C808">
@@ -11069,7 +11069,7 @@
     <row r="816">
       <c r="B816" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C816">
@@ -11147,7 +11147,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C822">
@@ -11238,7 +11238,7 @@
     <row r="829">
       <c r="B829" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C829">
@@ -11381,7 +11381,7 @@
     <row r="840">
       <c r="B840" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C840">
@@ -11420,7 +11420,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C843">
@@ -11485,7 +11485,7 @@
     <row r="848">
       <c r="B848" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C848">
@@ -11524,7 +11524,7 @@
     <row r="851">
       <c r="B851" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C851">
@@ -11589,7 +11589,7 @@
     <row r="856">
       <c r="B856" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C856">
@@ -11815,7 +11815,7 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C873">
@@ -11828,7 +11828,7 @@
     <row r="874">
       <c r="B874" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C874">
@@ -11854,7 +11854,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C876">
@@ -11893,7 +11893,7 @@
     <row r="879">
       <c r="B879" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C879">
@@ -11913,7 +11913,7 @@
         <v>8</v>
       </c>
       <c r="D880">
-        <v>0.0009330534173081409</v>
+        <v>0.0009330534173081408</v>
       </c>
     </row>
     <row r="881">
@@ -11932,7 +11932,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C882">
@@ -12111,7 +12111,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C895">
@@ -12202,7 +12202,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C902">
@@ -12280,7 +12280,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C908">
@@ -12358,7 +12358,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C914">
@@ -12371,7 +12371,7 @@
     <row r="915">
       <c r="B915" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C915">
@@ -12630,7 +12630,7 @@
         <v>8</v>
       </c>
       <c r="D934">
-        <v>0.0009330534173081409</v>
+        <v>0.0009330534173081408</v>
       </c>
     </row>
     <row r="935">
@@ -12875,7 +12875,7 @@
     <row r="953">
       <c r="B953" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C953">
@@ -13101,7 +13101,7 @@
     <row r="970">
       <c r="B970" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C970">
@@ -13269,7 +13269,7 @@
         <v>8</v>
       </c>
       <c r="D982">
-        <v>0.0009330534173081409</v>
+        <v>0.0009330534173081408</v>
       </c>
     </row>
     <row r="983">
@@ -13397,7 +13397,7 @@
     <row r="992">
       <c r="B992" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C992">
@@ -13449,7 +13449,7 @@
     <row r="996">
       <c r="B996" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C996">
@@ -13488,7 +13488,7 @@
     <row r="999">
       <c r="B999" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C999">
@@ -13514,7 +13514,7 @@
     <row r="1001">
       <c r="B1001" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1001">
@@ -13727,7 +13727,7 @@
     <row r="1017">
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1017">
@@ -13805,7 +13805,7 @@
     <row r="1023">
       <c r="B1023" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1023">
@@ -13831,7 +13831,7 @@
     <row r="1025">
       <c r="B1025" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1025">
@@ -13844,7 +13844,7 @@
     <row r="1026">
       <c r="B1026" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1026">
@@ -13948,7 +13948,7 @@
     <row r="1034">
       <c r="B1034" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1034">
@@ -14007,7 +14007,7 @@
         <v>8</v>
       </c>
       <c r="D1038">
-        <v>0.0009330534173081409</v>
+        <v>0.0009330534173081408</v>
       </c>
     </row>
     <row r="1039">
@@ -14052,7 +14052,7 @@
     <row r="1042">
       <c r="B1042" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1042">
@@ -14065,7 +14065,7 @@
     <row r="1043">
       <c r="B1043" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1043">
@@ -14091,7 +14091,7 @@
     <row r="1045">
       <c r="B1045" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1045">
@@ -14169,7 +14169,7 @@
     <row r="1051">
       <c r="B1051" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1051">
@@ -14234,7 +14234,7 @@
     <row r="1056">
       <c r="B1056" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1056">
@@ -14247,7 +14247,7 @@
     <row r="1057">
       <c r="B1057" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1057">
@@ -14377,7 +14377,7 @@
     <row r="1067">
       <c r="B1067" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1067">
@@ -14390,7 +14390,7 @@
     <row r="1068">
       <c r="B1068" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1068">
@@ -14416,7 +14416,7 @@
     <row r="1070">
       <c r="B1070" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1070">
@@ -14494,7 +14494,7 @@
     <row r="1076">
       <c r="B1076" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1076">
@@ -14644,7 +14644,7 @@
         <v>8</v>
       </c>
       <c r="D1087">
-        <v>0.0009330534173081409</v>
+        <v>0.0009330534173081408</v>
       </c>
     </row>
     <row r="1088">
@@ -14696,7 +14696,7 @@
         <v>8</v>
       </c>
       <c r="D1091">
-        <v>0.0009330534173081409</v>
+        <v>0.0009330534173081408</v>
       </c>
     </row>
     <row r="1092">
@@ -14754,7 +14754,7 @@
     <row r="1096">
       <c r="B1096" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1096">
@@ -15024,7 +15024,7 @@
     <row r="1116">
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1116">
@@ -15037,7 +15037,7 @@
     <row r="1117">
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1117">
@@ -15167,7 +15167,7 @@
     <row r="1127">
       <c r="B1127" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1127">
@@ -15219,7 +15219,7 @@
     <row r="1131">
       <c r="B1131" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1131">
@@ -15258,7 +15258,7 @@
     <row r="1134">
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1134">
@@ -15271,7 +15271,7 @@
     <row r="1135">
       <c r="B1135" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1135">
@@ -15284,7 +15284,7 @@
     <row r="1136">
       <c r="B1136" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1136">
@@ -15414,7 +15414,7 @@
     <row r="1146">
       <c r="B1146" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1146">
@@ -15427,14 +15427,14 @@
     <row r="1147">
       <c r="B1147" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1147">
         <v>8</v>
       </c>
       <c r="D1147">
-        <v>0.0009330534173081409</v>
+        <v>0.0009330534173081408</v>
       </c>
     </row>
     <row r="1148">
@@ -15453,7 +15453,7 @@
     <row r="1149">
       <c r="B1149" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1149">
@@ -15513,41 +15513,6 @@
       </c>
       <c r="D1153">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1155">
-      <c r="A1155" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 800,811</t>
-        </is>
-      </c>
-    </row>
-    <row r="1156">
-      <c r="A1156" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1157">
-      <c r="A1157" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1158">
-      <c r="A1158" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1159">
-      <c r="A1159" t="inlineStr">
-        <is>
-          <t>Abril de 2020</t>
-        </is>
       </c>
     </row>
   </sheetData>
